--- a/Mifos Automation Excels/Loan Product/4633-EI-FL-DL-DISB-01JAN2015-FC-15JAN2015.xlsx
+++ b/Mifos Automation Excels/Loan Product/4633-EI-FL-DL-DISB-01JAN2015-FC-15JAN2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="1" r:id="rId1"/>
@@ -100,10 +100,10 @@
     <t>Flat</t>
   </si>
   <si>
-    <t>4633-EI-FL-DL-DISB-01JAN2015-FC-15JAN2015</t>
-  </si>
-  <si>
     <t>verifyloanproduct</t>
+  </si>
+  <si>
+    <t>4633-EI-FL-DL-DISB-01JAN2015-FC-15JAN2015-1st</t>
   </si>
 </sst>
 </file>
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -544,7 +544,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -552,7 +552,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>4633</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,10 +696,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
